--- a/GLI_No_FVC_Percent_Predicted.xlsx
+++ b/GLI_No_FVC_Percent_Predicted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbhati\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25144655-19FD-44A0-804F-EFB06BE98793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C355299-5096-46B0-9CF7-2958FE796C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31080" yWindow="2280" windowWidth="19290" windowHeight="11085" xr2:uid="{9503BF40-06F6-4912-9146-D582181AD3EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{9503BF40-06F6-4912-9146-D582181AD3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>Unique ID</t>
   </si>
   <si>
@@ -56,10 +53,13 @@
     <t>Height</t>
   </si>
   <si>
-    <t>FEV1</t>
-  </si>
-  <si>
-    <t>FVC</t>
+    <t>Example 1</t>
+  </si>
+  <si>
+    <t>FEV1 (L)</t>
+  </si>
+  <si>
+    <t>FVC (L)</t>
   </si>
 </sst>
 </file>
@@ -471,30 +471,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C77C1A9-F52F-405B-B6A1-CB8E83B2C287}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -503,9 +503,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="4">
         <v>75</v>
@@ -521,46 +521,6 @@
       </c>
       <c r="F2" s="4">
         <v>3.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>58</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>163</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>66</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>175</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3.5</v>
       </c>
     </row>
   </sheetData>
